--- a/P1_Facial_Keypoints/calculator cnn layer output.xlsx
+++ b/P1_Facial_Keypoints/calculator cnn layer output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\udacity_compvision_1\P1_Facial_Keypoints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learn\Udacity\udacity-compvision-nd\P1_Facial_Keypoints\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="B3:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -439,7 +439,7 @@
       </c>
       <c r="G5">
         <f>((D4-D5+2*D7)/D6)+1</f>
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
       </c>
       <c r="G6" t="str">
         <f>CONCATENATE("(",G5,"x",G5,"x",D8,")")</f>
-        <v>(24x24x512)</v>
+        <v>(109x109x128)</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>512</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -502,11 +502,11 @@
       </c>
       <c r="D13">
         <f>D8</f>
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="G13">
         <f>ROUNDDOWN(((G5-D14)/D15)+1,0)</f>
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
       </c>
       <c r="G14" t="str">
         <f>CONCATENATE("(",G13,"x",G13,"x",D13,")")</f>
-        <v>(12x12x512)</v>
+        <v>(54x54x128)</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
